--- a/bandung.xlsx
+++ b/bandung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayobandung/Documents/databuzzer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/gobuzzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3620" windowWidth="38900" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="383">
   <si>
     <t>No</t>
   </si>
@@ -975,6 +975,207 @@
   </si>
   <si>
     <t>GENDER AUDIENS</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-01.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-02.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-03.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-04.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-05.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-06.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-07.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-08.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-09.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-10.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-11.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-12.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-13.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-14.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-15.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-16.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-17.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-18.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-19.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-20.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-21.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-22.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-23.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-24.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-25.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-26.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-27.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-28.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-29.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-30.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-31.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-32.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-33.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-34.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-35.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-36.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-37.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-38.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-39.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-40.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-41.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-42.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-43.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-44.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-45.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-46.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-47.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-48.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-49.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-50.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-51.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-52.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-53.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-54.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-57.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-58jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-59.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-60.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-61.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-62.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-63.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-64.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-65.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-66.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-67.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-68.jpg</t>
+  </si>
+  <si>
+    <t>assets/img/capture_buzzer/bdg-69.jpg</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1096,19 +1297,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1149,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1169,9 +1357,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,13 +1370,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1206,7 +1391,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1516,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1530,7 +1715,8 @@
     <col min="7" max="7" width="83.5" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1564,24 +1750,24 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1594,25 +1780,28 @@
       <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="27">
+      <c r="J2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="K2" s="26">
         <v>20000</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
+        <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1625,25 +1814,28 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="27">
+      <c r="J3" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="K3" s="26">
         <v>75000</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1656,25 +1848,28 @@
       <c r="I4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="27">
+      <c r="J4" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="K4" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1687,25 +1882,28 @@
       <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="27">
+      <c r="J5" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="K5" s="26">
         <v>70000</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1718,25 +1916,28 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="27">
+      <c r="J6" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="26">
         <v>150000</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1749,180 +1950,198 @@
       <c r="I7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="27">
+      <c r="J7" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="K7" s="26">
         <v>70000</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="27">
+      <c r="J8" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="27">
+      <c r="J9" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="K9" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="A10" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="27">
+      <c r="J10" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="K10" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="27">
+      <c r="J11" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="K11" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="27">
+      <c r="J12" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="K12" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>155</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1935,25 +2154,28 @@
       <c r="I13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="27">
+      <c r="J13" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="K13" s="26">
         <v>20000</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1966,25 +2188,28 @@
       <c r="I14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="27">
+      <c r="J14" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="K14" s="26">
         <v>75000</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1997,25 +2222,28 @@
       <c r="I15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="27">
+      <c r="J15" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="K15" s="26">
         <v>70000</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -2028,25 +2256,28 @@
       <c r="I16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="27">
+      <c r="J16" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="K16" s="26">
         <v>125000</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2059,25 +2290,28 @@
       <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="27">
+      <c r="J17" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="K17" s="26">
         <v>100000</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -2090,54 +2324,60 @@
       <c r="I18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="27">
+      <c r="J18" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="K18" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="27">
+      <c r="J19" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="K19" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -2150,56 +2390,62 @@
       <c r="I20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="27">
+      <c r="J20" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="K20" s="26">
         <v>75000</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="20">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="28">
+      <c r="J21" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K21" s="27">
         <v>350000</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -2212,56 +2458,62 @@
       <c r="I22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="27">
+      <c r="J22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="K22" s="26">
         <v>200000</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>21</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="A23" s="20">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="21" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="27">
+      <c r="J23" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="K23" s="26">
         <v>150000</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>22</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="22" t="s">
+      <c r="A24" s="20">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -2274,87 +2526,96 @@
       <c r="I24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="27">
+      <c r="J24" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" s="26">
         <v>20000</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>23</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="22" t="s">
+      <c r="A25" s="20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="21" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="27">
+      <c r="J25" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="K25" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>24</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="13"/>
+      <c r="I26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="27">
+      <c r="J26" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="K26" s="26">
         <v>45000</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <v>25</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="A27" s="20">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -2367,25 +2628,28 @@
       <c r="I27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="27">
+      <c r="J27" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="K27" s="26">
         <v>150000</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <v>26</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="A28" s="20">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2398,25 +2662,28 @@
       <c r="I28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="27">
+      <c r="J28" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="K28" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
-        <v>27</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="A29" s="20">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -2429,25 +2696,28 @@
       <c r="I29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="27">
+      <c r="J29" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="K29" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>28</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="22" t="s">
+      <c r="A30" s="20">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -2460,25 +2730,28 @@
       <c r="I30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="27">
+      <c r="J30" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="K30" s="26">
         <v>30000</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
-        <v>29</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="A31" s="20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>66</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -2491,25 +2764,28 @@
       <c r="I31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="27">
+      <c r="J31" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="K31" s="26">
         <v>70000</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
-        <v>30</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="A32" s="20">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="20" t="s">
         <v>68</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -2522,25 +2798,28 @@
       <c r="I32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="27">
+      <c r="J32" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="K32" s="26">
         <v>100000</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
-        <v>31</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="A33" s="20">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>70</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -2553,149 +2832,164 @@
       <c r="I33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="27">
+      <c r="J33" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="K33" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
-        <v>32</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="22" t="s">
+      <c r="A34" s="20">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16" t="s">
+      <c r="H34" s="15"/>
+      <c r="I34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="27">
+      <c r="J34" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="K34" s="26">
         <v>100000</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>33</v>
+      <c r="A35" s="20">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18" t="s">
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="29">
+      <c r="J35" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="K35" s="28">
         <v>50000</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
-        <v>34</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="A36" s="20">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16" t="s">
+      <c r="H36" s="15"/>
+      <c r="I36" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="27">
+      <c r="J36" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="K36" s="26">
         <v>45000</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
-        <v>35</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="22" t="s">
+      <c r="A37" s="20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16" t="s">
+      <c r="H37" s="15"/>
+      <c r="I37" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="27">
+      <c r="J37" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="K37" s="26">
         <v>40000</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
-        <v>36</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="22" t="s">
+      <c r="A38" s="20">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>85</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -2708,25 +3002,28 @@
       <c r="I38" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="27">
+      <c r="J38" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="K38" s="26">
         <v>80000</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
-        <v>37</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="A39" s="20">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -2739,149 +3036,164 @@
       <c r="I39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="27">
+      <c r="J39" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="K39" s="26">
         <v>25000</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>38</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="22" t="s">
+      <c r="A40" s="20">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16" t="s">
+      <c r="H40" s="15"/>
+      <c r="I40" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="27">
+      <c r="J40" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="K40" s="26">
         <v>150000</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>39</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="22" t="s">
+      <c r="A41" s="20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16" t="s">
+      <c r="H41" s="15"/>
+      <c r="I41" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="27">
+      <c r="J41" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="K41" s="26">
         <v>60000</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
-        <v>40</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="22" t="s">
+      <c r="A42" s="20">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>92</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16" t="s">
+      <c r="H42" s="15"/>
+      <c r="I42" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="27">
+      <c r="J42" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" s="26">
         <v>16000</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>41</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="A43" s="20">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>94</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16" t="s">
+      <c r="H43" s="15"/>
+      <c r="I43" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="27">
+      <c r="J43" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" s="26">
         <v>120000</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
-        <v>42</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="22" t="s">
+      <c r="A44" s="20">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -2894,25 +3206,28 @@
       <c r="I44" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="27">
+      <c r="J44" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="K44" s="26">
         <v>175000</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
-        <v>43</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="22" t="s">
+      <c r="A45" s="20">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -2923,25 +3238,28 @@
       <c r="I45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="27">
+      <c r="J45" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" s="26">
         <v>25000</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
-        <v>44</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="22" t="s">
+      <c r="A46" s="20">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>98</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -2954,25 +3272,28 @@
       <c r="I46" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="27">
+      <c r="J46" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="K46" s="26">
         <v>150000</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
-        <v>45</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="22" t="s">
+      <c r="A47" s="20">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -2983,87 +3304,96 @@
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="27">
+      <c r="J47" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="K47" s="26">
         <v>25000</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
-        <v>46</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="22" t="s">
+      <c r="A48" s="20">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H48" s="17"/>
+      <c r="H48" s="16"/>
       <c r="I48" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="27">
+      <c r="J48" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="K48" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
-        <v>47</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="22" t="s">
+      <c r="A49" s="20">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="13" t="s">
         <v>103</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="27">
+      <c r="J49" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="K49" s="26">
         <v>20000</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
-        <v>48</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="22" t="s">
+      <c r="A50" s="20">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -3074,25 +3404,28 @@
       <c r="I50" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="27">
+      <c r="J50" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="K50" s="26">
         <v>25000</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
-        <v>49</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="22" t="s">
+      <c r="A51" s="20">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="21" t="s">
         <v>106</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -3105,25 +3438,28 @@
       <c r="I51" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J51" s="21"/>
-      <c r="K51" s="27">
+      <c r="J51" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="K51" s="26">
         <v>75000</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
-        <v>50</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="22" t="s">
+      <c r="A52" s="20">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="21" t="s">
         <v>108</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -3131,28 +3467,31 @@
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="17" t="s">
+      <c r="I52" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J52" s="21"/>
-      <c r="K52" s="27">
+      <c r="J52" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="K52" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
-        <v>51</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="22" t="s">
+      <c r="A53" s="20">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="21" t="s">
         <v>111</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -3165,145 +3504,160 @@
       <c r="I53" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="27">
+      <c r="J53" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="K53" s="26">
         <v>100000</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
-        <v>52</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="22" t="s">
+      <c r="A54" s="20">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="21" t="s">
         <v>114</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="13" t="s">
         <v>197</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="27">
+      <c r="J54" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="K54" s="26">
         <v>25000</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21">
-        <v>53</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="22" t="s">
+      <c r="A55" s="20">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>117</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16" t="s">
+      <c r="H55" s="15"/>
+      <c r="I55" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="J55" s="21"/>
-      <c r="K55" s="27">
+      <c r="J55" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="K55" s="26">
         <v>30000</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
-        <v>54</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="24" t="s">
+      <c r="A56" s="20">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="27">
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="K56" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
-        <v>55</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="22" t="s">
+      <c r="A57" s="20">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="21" t="s">
         <v>115</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16" t="s">
+      <c r="H57" s="15"/>
+      <c r="I57" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J57" s="21"/>
-      <c r="K57" s="27">
+      <c r="J57" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="K57" s="26">
         <v>30000</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21">
-        <v>56</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="22" t="s">
+      <c r="A58" s="20">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -3316,25 +3670,28 @@
       <c r="I58" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J58" s="21"/>
-      <c r="K58" s="27">
+      <c r="J58" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="K58" s="26">
         <v>75000</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
-        <v>57</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="22" t="s">
+      <c r="A59" s="20">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -3342,28 +3699,31 @@
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="17" t="s">
+      <c r="I59" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J59" s="21"/>
-      <c r="K59" s="27">
+      <c r="J59" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="K59" s="26">
         <v>80000</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21">
-        <v>58</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="22" t="s">
+      <c r="A60" s="20">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -3374,149 +3734,164 @@
       <c r="I60" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J60" s="21"/>
-      <c r="K60" s="27">
+      <c r="J60" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="K60" s="26">
         <v>325000</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21">
-        <v>59</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="22" t="s">
+      <c r="A61" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16" t="s">
+      <c r="H61" s="15"/>
+      <c r="I61" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="J61" s="21"/>
-      <c r="K61" s="27">
+      <c r="J61" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="K61" s="26">
         <v>80031</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21">
-        <v>60</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="22" t="s">
+      <c r="A62" s="20">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="21" t="s">
         <v>128</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16" t="s">
+      <c r="H62" s="15"/>
+      <c r="I62" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J62" s="21"/>
-      <c r="K62" s="27">
+      <c r="J62" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="K62" s="26">
         <v>16000</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
-        <v>61</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="22" t="s">
+      <c r="A63" s="20">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="21" t="s">
         <v>131</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16" t="s">
+      <c r="H63" s="15"/>
+      <c r="I63" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J63" s="21"/>
-      <c r="K63" s="27">
+      <c r="J63" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="K63" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21">
-        <v>62</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="22" t="s">
+      <c r="A64" s="20">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="21" t="s">
         <v>133</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16" t="s">
+      <c r="H64" s="15"/>
+      <c r="I64" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J64" s="21"/>
-      <c r="K64" s="27">
+      <c r="J64" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="K64" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
-        <v>63</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="22" t="s">
+      <c r="A65" s="20">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F65" s="5" t="s">
@@ -3529,25 +3904,28 @@
       <c r="I65" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J65" s="21"/>
-      <c r="K65" s="27">
+      <c r="J65" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="K65" s="26">
         <v>100000</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
-        <v>64</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="22" t="s">
+      <c r="A66" s="20">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -3555,28 +3933,31 @@
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="17" t="s">
+      <c r="I66" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J66" s="21"/>
-      <c r="K66" s="27">
+      <c r="J66" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="K66" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
-        <v>65</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="22" t="s">
+      <c r="A67" s="20">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="5" t="s">
@@ -3587,25 +3968,28 @@
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="27">
+      <c r="J67" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="K67" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
-        <v>66</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="21" t="s">
+      <c r="A68" s="20">
+        <f t="shared" ref="A68:A70" si="1">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F68" s="5" t="s">
@@ -3618,25 +4002,28 @@
       <c r="I68" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J68" s="21"/>
-      <c r="K68" s="27">
+      <c r="J68" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="K68" s="26">
         <v>75000</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21">
-        <v>67</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="22" t="s">
+      <c r="A69" s="20">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="5" t="s">
@@ -3649,39 +4036,44 @@
       <c r="I69" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J69" s="21"/>
-      <c r="K69" s="27">
+      <c r="J69" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="K69" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21">
-        <v>68</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="22" t="s">
+      <c r="A70" s="20">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16" t="s">
+      <c r="H70" s="15"/>
+      <c r="I70" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="J70" s="21"/>
-      <c r="K70" s="27">
+      <c r="J70" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="K70" s="26">
         <v>50000</v>
       </c>
     </row>
